--- a/Batch 2018-20/Sem 2/Final Marks.xlsx
+++ b/Batch 2018-20/Sem 2/Final Marks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C015542-BE5B-4167-A305-6BE811AC4DA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887E093-53F3-495D-A7E6-25FD395A46CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,6 +422,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,10 +439,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10770,121 +10770,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="str">
+      <c r="D1" s="32" t="str">
         <f>'[1]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="32" t="str">
+      <c r="K1" s="34" t="str">
         <f>'[1]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="30" t="str">
+      <c r="R1" s="32" t="str">
         <f>'[1]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="33"/>
       <c r="X1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="30" t="str">
+      <c r="Y1" s="32" t="str">
         <f>'[1]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="33"/>
       <c r="AE1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="30" t="str">
+      <c r="AF1" s="32" t="str">
         <f>'[1]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="31"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="33"/>
       <c r="AL1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AM1" s="30" t="str">
+      <c r="AM1" s="32" t="str">
         <f>'[1]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="31"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="33"/>
       <c r="AS1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="30" t="str">
+      <c r="AT1" s="32" t="str">
         <f>'[1]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="31"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="33"/>
       <c r="AZ1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BA1" s="30" t="str">
+      <c r="BA1" s="32" t="str">
         <f>'[1]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="29" t="s">
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="29" t="s">
+      <c r="BH1" s="32"/>
+      <c r="BI1" s="32"/>
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="BM1" s="30"/>
-      <c r="BN1" s="30"/>
-      <c r="BO1" s="30"/>
-      <c r="BP1" s="31"/>
-      <c r="BS1" s="34" t="s">
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="33"/>
+      <c r="BS1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11093,7 +11093,7 @@
       <c r="BP2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" s="35" t="s">
+      <c r="BS2" s="30" t="s">
         <v>24</v>
       </c>
     </row>
